--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_DA4A21906B6E4A28A77792E41F260243D1C143F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C7A852-DB08-403D-B06B-12D1DDBECFFE}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9332CEBA-1821-4691-89F9-8ED73C6CC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Horodateur</t>
   </si>
@@ -76,30 +81,15 @@
     <t>TEOM,REOM,REO102.79Mi</t>
   </si>
   <si>
-    <t>102.79</t>
-  </si>
-  <si>
     <t>https://www.semoctom.com/web/fr/5-carte-interactive.php?&amp;keyword=&amp;type=137</t>
   </si>
   <si>
     <t>CA du Pays Voironnais</t>
   </si>
   <si>
-    <t>161.43</t>
-  </si>
-  <si>
-    <t>58.30</t>
-  </si>
-  <si>
-    <t>36.51</t>
-  </si>
-  <si>
     <t>TEOM + RS</t>
   </si>
   <si>
-    <t>103.80</t>
-  </si>
-  <si>
     <t>oui on a ça. pour quel usage ?</t>
   </si>
   <si>
@@ -112,9 +102,6 @@
     <t>CC Bassin de Pompey</t>
   </si>
   <si>
-    <t>depuis le début de l'année 2023: 4500 foyers</t>
-  </si>
-  <si>
     <t>TEOMI</t>
   </si>
   <si>
@@ -124,9 +111,6 @@
     <t xml:space="preserve">Nantes Métropole </t>
   </si>
   <si>
-    <t>200 tonnes en 2022</t>
-  </si>
-  <si>
     <t>https://www.cartoquartiers.fr/, rubrique "Tri, déchets &amp; réemploi", item "Point de collecte de déchets alimentaires"</t>
   </si>
   <si>
@@ -139,69 +123,18 @@
     <t>https://www.smictom-alsacecentrale.fr/la-collecte/infos-sur-la-collecte-des-dechets-porte-porte-et-points-dapport-volontaire</t>
   </si>
   <si>
-    <t>Communauté de communes Celavu Prunelli</t>
-  </si>
-  <si>
-    <t>Insee : 8828</t>
-  </si>
-  <si>
-    <t>en biodéchets je suppose ? 0</t>
-  </si>
-  <si>
     <t>54 kg (papier et emballages)</t>
   </si>
   <si>
-    <t>28 kg</t>
-  </si>
-  <si>
-    <t>255 €HT</t>
-  </si>
-  <si>
     <t>CDC PUISAYE FORTERRE</t>
   </si>
   <si>
-    <t>Population municipale : 33941 hab</t>
-  </si>
-  <si>
-    <t>en 2022 : 3276 tonnes</t>
-  </si>
-  <si>
-    <t>en 2021 : 115</t>
-  </si>
-  <si>
-    <t>en 2021 : 35</t>
-  </si>
-  <si>
-    <t>en 2021 : 56</t>
-  </si>
-  <si>
     <t>REOM</t>
   </si>
   <si>
     <t>Sirtom de la région de Brive</t>
   </si>
   <si>
-    <t>431,7 tonnes en 2022</t>
-  </si>
-  <si>
-    <t>27430 habitants</t>
-  </si>
-  <si>
-    <t>6506 habitants</t>
-  </si>
-  <si>
-    <t>20924 habitants</t>
-  </si>
-  <si>
-    <t>184 kg / an / habitant</t>
-  </si>
-  <si>
-    <t>59 kg / an / habitant</t>
-  </si>
-  <si>
-    <t>37 kg / an / habitant</t>
-  </si>
-  <si>
     <t>TI</t>
   </si>
   <si>
@@ -211,57 +144,18 @@
     <t>Auray Quiberon Terre Atlantique</t>
   </si>
   <si>
-    <t>116 232 hab.DGF (ou 90 815 hab.INSEE)</t>
-  </si>
-  <si>
-    <t>Démarrage en 2023 , déploiement en cours, estimation à 1500 t. fin 2023, 3 000 t. en 2025.</t>
-  </si>
-  <si>
-    <t>100% à fin novembre 2023, 90 815 hab. INSEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 815 hab. </t>
-  </si>
-  <si>
-    <t>indéfini à ce jour (dispositif complémentaire pour gérer la saisonnalité et l'habitat non équipable en bac individuel)</t>
-  </si>
-  <si>
-    <t>198 kg/an/hab. (2022)</t>
-  </si>
-  <si>
     <t>30 kg en 2022, hors papiers (13 kg)</t>
   </si>
   <si>
-    <t>60 kg/an/hab.</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEOM </t>
   </si>
   <si>
-    <t>142 €HT/hab/an (2021)</t>
-  </si>
-  <si>
     <t xml:space="preserve">pas encore, mais à l'avenir pourquoi pas </t>
   </si>
   <si>
     <t>Métropole de Lyon</t>
   </si>
   <si>
-    <t>1,4 millions</t>
-  </si>
-  <si>
-    <t>1066 tonnes en 2022</t>
-  </si>
-  <si>
-    <t>260 000 depuis décembre 2022</t>
-  </si>
-  <si>
-    <t>44.6</t>
-  </si>
-  <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>teom</t>
   </si>
   <si>
@@ -271,75 +165,24 @@
     <t>Grand Chambéry</t>
   </si>
   <si>
-    <t>65,2 T pour les PRO et 6T pour les habitants (lancement expe octobre 2022)</t>
-  </si>
-  <si>
     <t>4500 pour les PAV biodec mode collecte et près de 30 000 à un point de compostage partagé</t>
   </si>
   <si>
-    <t>environ 235 kg</t>
-  </si>
-  <si>
-    <t>43,5 (extension consignes de tri depuis 1er janvier 2023 seulement)</t>
-  </si>
-  <si>
-    <t>28.2</t>
-  </si>
-  <si>
-    <t>100,84 €/hab tous flux</t>
-  </si>
-  <si>
     <t>Oui, je les envoie dans un mail</t>
   </si>
   <si>
     <t>Grand Paris Seine Ouest</t>
   </si>
   <si>
-    <t>324 438 (population 2022)</t>
-  </si>
-  <si>
-    <t>339 tonnes (RPQS 2021)</t>
-  </si>
-  <si>
-    <t>13 362 hab en 2022</t>
-  </si>
-  <si>
-    <t>0 hab</t>
-  </si>
-  <si>
-    <t>228 kg/hab/an (RPQS 2021)</t>
-  </si>
-  <si>
-    <t>46 kg/hab/an (RPQS 2021)</t>
-  </si>
-  <si>
-    <t>23 kg/hab/an (RPQS 2021)</t>
-  </si>
-  <si>
-    <t>99,56 € TTC/hab (RPQS 2021)</t>
-  </si>
-  <si>
     <t>Grand Annecy</t>
   </si>
   <si>
-    <t>0 - 600t pour les pros</t>
-  </si>
-  <si>
     <t>SMTD65</t>
   </si>
   <si>
-    <t>221.32</t>
-  </si>
-  <si>
-    <t>59.4</t>
-  </si>
-  <si>
     <t>Le SMTD65 n'a rien mis en place car seule compétence de traitement. synthese pour information (55.6% TEOMI, 32.8% TEOM, 11.5% Redevance i)</t>
   </si>
   <si>
-    <t>besoin de précision pour cette question (que prendre en compte précisement?)</t>
-  </si>
-  <si>
     <t>nous n'avons pas ces données (gestion directe par nos syndicats de collecte.</t>
   </si>
   <si>
@@ -349,39 +192,9 @@
     <t>Syndicat du Bois de l'Aumône (SBA)</t>
   </si>
   <si>
-    <t>528 en 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectif à fin 2024 : 60 000 habitants desservis en PAC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 particuliers et 205 professionnels </t>
-  </si>
-  <si>
-    <t>39918 en février 2023 = tous les habitants des communes équipées d'un PAV</t>
-  </si>
-  <si>
-    <t>125,36 euros en 2021</t>
-  </si>
-  <si>
-    <t>Communauté des communes vallée de l Hérault</t>
-  </si>
-  <si>
-    <t>1730 Tonnes</t>
-  </si>
-  <si>
     <t>Non</t>
   </si>
   <si>
-    <t>Communauté de Communes de la Région de Guebwiller</t>
-  </si>
-  <si>
-    <t>38829 (INSEE, données 2020)</t>
-  </si>
-  <si>
-    <t>RIOM au volume et à la levée</t>
-  </si>
-  <si>
     <t>Le coût vous sera communiqué ultérieurement</t>
   </si>
   <si>
@@ -397,41 +210,36 @@
     <t>SMICVAL</t>
   </si>
   <si>
-    <t>209023 (2023)</t>
-  </si>
-  <si>
-    <t>1570 T (2022)</t>
-  </si>
-  <si>
-    <t>56 070 hab</t>
-  </si>
-  <si>
-    <t>56070 hab</t>
-  </si>
-  <si>
-    <t>2 PAV biodéchets actuellement (négligeable, test)</t>
-  </si>
-  <si>
-    <t>222 kg/an/hab en 2022</t>
-  </si>
-  <si>
-    <t>49.7 kg/an/hab en 2022</t>
-  </si>
-  <si>
-    <t>37.2 kg/an/hab en 2022</t>
-  </si>
-  <si>
     <t>1 à Libourne, et 1 à St Denis de Pile</t>
+  </si>
+  <si>
+    <t>CC Celavu Prunelli</t>
+  </si>
+  <si>
+    <t>CC vallée de l Hérault</t>
+  </si>
+  <si>
+    <t>CC de la Région de Guebwiller</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>NaN 60 000 2024 en PAC</t>
+  </si>
+  <si>
+    <t>RIOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -442,6 +250,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,14 +258,28 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,17 +291,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,11 +526,11 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
@@ -712,7 +540,7 @@
     <col min="6" max="19" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,829 +581,844 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45001.677176620375</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>114153</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>479</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>17882</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>17882</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>56</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>37</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4">
+        <v>102.79</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>94501</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1787</v>
+      </c>
+      <c r="E3" s="4">
+        <v>94501</v>
+      </c>
+      <c r="F3" s="4">
+        <v>77225</v>
+      </c>
+      <c r="G3" s="4">
+        <v>17276</v>
+      </c>
+      <c r="H3" s="4">
+        <v>16143</v>
+      </c>
+      <c r="I3" s="4">
+        <v>58.3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>36.51</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
-        <v>94501</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1787</v>
-      </c>
-      <c r="E3" s="1">
-        <v>94501</v>
-      </c>
-      <c r="F3" s="1">
-        <v>77225</v>
-      </c>
-      <c r="G3" s="1">
-        <v>17276</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="4">
+        <v>103.8</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
         <v>85273</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>2522</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>84475</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>84275</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>30</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>45</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>54</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
         <v>40800</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>3500</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>30000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>30000</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="4">
+        <v>4500</v>
+      </c>
+      <c r="H5" s="4">
         <v>185</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>63</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4">
         <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
         <v>682260</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4">
         <v>25000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>25000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>199</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>45</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>28</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4">
+        <v>96</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1">
-        <v>96</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
         <v>132000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>3112</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>132000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>132000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>141</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>58</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="K7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45005.564700925926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8828</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>344</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4">
+        <v>28</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
         <v>33941</v>
       </c>
-      <c r="F9" s="1">
+      <c r="D9" s="4">
+        <v>3276</v>
+      </c>
+      <c r="E9" s="4">
         <v>33941</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="4">
         <v>33941</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="G9" s="4">
+        <v>33941</v>
+      </c>
+      <c r="H9" s="4">
+        <v>115</v>
+      </c>
+      <c r="I9" s="4">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4">
+        <v>56</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
         <v>155220</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>57</v>
+      <c r="D10" s="4">
+        <v>431.7</v>
+      </c>
+      <c r="E10" s="4">
+        <v>27430</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6506</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20924</v>
+      </c>
+      <c r="H10" s="4">
+        <v>184</v>
+      </c>
+      <c r="I10" s="4">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4">
+        <v>37</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>90815</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>90815</v>
+      </c>
+      <c r="F11" s="4">
+        <v>90815</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="4">
+        <v>198</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="4">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>69</v>
+      <c r="K11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="4">
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="1">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1400000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1066</v>
+      </c>
+      <c r="E12" s="4">
+        <v>260000</v>
+      </c>
+      <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>260000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>224</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="4">
+        <v>44.6</v>
+      </c>
+      <c r="J12" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="4">
         <v>76</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="1">
-        <v>76</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4">
         <v>140000</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="4">
+        <v>71.2</v>
+      </c>
+      <c r="E13" s="4">
         <v>4500</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>85</v>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="4">
+        <v>235</v>
+      </c>
+      <c r="I13" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="4">
+        <v>100.84</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45015.485319687505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4">
+        <v>324438</v>
+      </c>
+      <c r="D14" s="4">
+        <v>339</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13362</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13362</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>228</v>
+      </c>
+      <c r="I14" s="4">
+        <v>46</v>
+      </c>
+      <c r="J14" s="4">
+        <v>23</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4">
+        <v>99.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="1">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4">
         <v>214000</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4">
+        <v>600</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="H15" s="4">
         <v>229</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>35</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>43</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45015.675072337966</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4">
         <v>224226</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="H16" s="5">
+        <v>221.32</v>
+      </c>
+      <c r="I16" s="4">
+        <v>59.4</v>
+      </c>
+      <c r="J16" s="4">
         <v>42</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>102</v>
+      <c r="K16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45015.679077731482</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4">
         <v>9823</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <v>295</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>51</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>30</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="K17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="1">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4">
         <v>165122</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="D18" s="4">
+        <v>528</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4">
+        <v>205</v>
+      </c>
+      <c r="G18" s="4">
+        <v>39918</v>
+      </c>
+      <c r="H18" s="4">
         <v>136.9</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>51.1</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>37.5</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="4">
+        <v>125.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="1">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4">
         <v>41014</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="4">
+        <v>1730</v>
+      </c>
+      <c r="E19" s="4">
         <v>41014</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>37514</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>3500</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <v>178</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>43</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>40</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="K19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4">
         <v>97</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="1">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>2371.92</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="4">
+        <v>38829</v>
+      </c>
+      <c r="F20" s="4">
         <v>38404</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>425</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <v>92</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>71.5</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>43.5</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>117</v>
+      <c r="K20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45016.51286357639</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="1">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4">
         <v>82148</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>3000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>69300</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>65800</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>3500</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <v>206</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>39</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>43</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="K21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4">
         <v>81</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45016.690710104165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20902</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1570</v>
+      </c>
+      <c r="E22" s="4">
+        <v>56070</v>
+      </c>
+      <c r="F22" s="4">
+        <v>56070</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>222</v>
+      </c>
+      <c r="I22" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="J22" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A668EE-E451-4005-AC90-415903428A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA445B-2048-451E-8BA8-A38586E9BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -114,15 +114,9 @@
     <t>SMICTOM d'Alsace Centrale</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>https://www.smictom-alsacecentrale.fr/la-collecte/infos-sur-la-collecte-des-dechets-porte-porte-et-points-dapport-volontaire</t>
   </si>
   <si>
-    <t>54 kg (papier et emballages)</t>
-  </si>
-  <si>
     <t>CDC PUISAYE FORTERRE</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Auray Quiberon Terre Atlantique</t>
   </si>
   <si>
-    <t>30 kg en 2022, hors papiers (13 kg)</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEOM </t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>SMTD65</t>
   </si>
   <si>
-    <t>Le SMTD65 n'a rien mis en place car seule compétence de traitement. synthese pour information (55.6% TEOMI, 32.8% TEOM, 11.5% Redevance i)</t>
-  </si>
-  <si>
     <t>nous n'avons pas ces données (gestion directe par nos syndicats de collecte.</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>Non</t>
   </si>
   <si>
-    <t>Le coût vous sera communiqué ultérieurement</t>
-  </si>
-  <si>
     <t>Une carte reprenant les PAV peut vous être transmise par mail</t>
   </si>
   <si>
@@ -222,22 +207,19 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>NaN 60 000 2024 en PAC</t>
-  </si>
-  <si>
     <t>RIOM</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>221,32 Ou 221.32</t>
-  </si>
-  <si>
     <t>Région</t>
   </si>
   <si>
     <t>Densité moyenne</t>
+  </si>
+  <si>
+    <t>Typologies d'habitation</t>
   </si>
 </sst>
 </file>
@@ -276,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +268,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,6 +306,9 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -531,11 +528,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17:L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -545,12 +544,12 @@
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="51.5703125" customWidth="1"/>
-    <col min="6" max="21" width="18.85546875" customWidth="1"/>
+    <col min="6" max="22" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -586,17 +585,20 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>45001.677176620375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -634,12 +636,13 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -661,7 +664,7 @@
         <v>17276</v>
       </c>
       <c r="H3" s="3">
-        <v>16143</v>
+        <v>161.43</v>
       </c>
       <c r="I3" s="3">
         <v>58.3</v>
@@ -677,12 +680,13 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -720,9 +724,10 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -760,12 +765,13 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -803,12 +809,13 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -839,32 +846,33 @@
         <v>47</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3">
         <v>86</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="O7" s="3"/>
+      <c r="P7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>45005.564700925926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3">
         <v>8828</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -875,8 +883,8 @@
       <c r="H8" s="3">
         <v>344</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
+      <c r="I8" s="4">
+        <v>54</v>
       </c>
       <c r="J8" s="3">
         <v>28</v>
@@ -889,13 +897,14 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>33941</v>
@@ -922,20 +931,21 @@
         <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>155220</v>
@@ -962,23 +972,24 @@
         <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="O10" s="5"/>
+      <c r="P10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>90815</v>
@@ -993,35 +1004,36 @@
         <v>90815</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3">
         <v>198</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>35</v>
+      <c r="I11" s="4">
+        <v>43</v>
       </c>
       <c r="J11" s="3">
         <v>60</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L11" s="3">
         <v>142</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="O11" s="3"/>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3">
         <v>1400000</v>
@@ -1048,23 +1060,24 @@
         <v>23.9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L12" s="3">
         <v>76</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="O12" s="3"/>
+      <c r="P12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>140000</v>
@@ -1079,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3">
         <v>235</v>
@@ -1091,23 +1104,24 @@
         <v>28.2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L13" s="3">
         <v>100.84</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="O13" s="3"/>
+      <c r="P13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>45015.485319687505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3">
         <v>324438</v>
@@ -1141,13 +1155,14 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>214000</v>
@@ -1156,7 +1171,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1177,26 +1192,27 @@
         <v>19</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>45015.675072337966</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>224226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1204,8 +1220,8 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>65</v>
+      <c r="H16" s="4">
+        <v>221.32</v>
       </c>
       <c r="I16" s="3">
         <v>59.4</v>
@@ -1214,32 +1230,33 @@
         <v>42</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45015.679077731482</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3">
         <v>9823</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1264,13 +1281,14 @@
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3">
         <v>165122</v>
@@ -1278,8 +1296,8 @@
       <c r="D18" s="3">
         <v>528</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>62</v>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F18" s="3">
         <v>205</v>
@@ -1297,20 +1315,21 @@
         <v>37.5</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="3">
         <v>125.36</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>41014</v>
@@ -1344,16 +1363,17 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3">
         <v>38069</v>
@@ -1380,23 +1400,24 @@
         <v>43.5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="4"/>
+      <c r="P20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45016.51286357639</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3">
         <v>82148</v>
@@ -1430,16 +1451,17 @@
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+      <c r="P21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45016.690710104165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3">
         <v>20902</v>
@@ -1453,7 +1475,7 @@
       <c r="F22" s="3">
         <v>56070</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="8">
         <v>2</v>
       </c>
       <c r="H22" s="3">
@@ -1466,22 +1488,23 @@
         <v>37.200000000000003</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="1" t="s">
-        <v>57</v>
+      <c r="O22" s="5"/>
+      <c r="P22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA445B-2048-451E-8BA8-A38586E9BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4242B68C-343B-4FB3-9DD6-E92FF340BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -75,9 +75,6 @@
     <t>SEMOCTOM</t>
   </si>
   <si>
-    <t>TEOM,REOM,REO102.79Mi</t>
-  </si>
-  <si>
     <t>https://www.semoctom.com/web/fr/5-carte-interactive.php?&amp;keyword=&amp;type=137</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>CC Bassin de Pompey</t>
   </si>
   <si>
-    <t>TEOMI</t>
-  </si>
-  <si>
     <t>voir site internet ou appli montri</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Métropole de Lyon</t>
   </si>
   <si>
-    <t>teom</t>
-  </si>
-  <si>
     <t>https://data.grandlyon.com/jeux-de-donnees/bornes-a-compost-metropole-lyon/donnees</t>
   </si>
   <si>
@@ -220,6 +211,27 @@
   </si>
   <si>
     <t>Typologies d'habitation</t>
+  </si>
+  <si>
+    <t>TEOM + REOM</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Occitanie </t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>peuplé</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>Département</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -309,6 +321,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -528,13 +543,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,12 +559,12 @@
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="51.5703125" customWidth="1"/>
-    <col min="6" max="22" width="18.85546875" customWidth="1"/>
+    <col min="6" max="23" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -585,19 +600,22 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>45001.677176620375</v>
       </c>
@@ -629,7 +647,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="L2" s="3">
         <v>102.79</v>
@@ -637,16 +655,17 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>94501</v>
@@ -673,7 +692,7 @@
         <v>36.51</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3">
         <v>103.8</v>
@@ -681,16 +700,17 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>85273</v>
@@ -717,7 +737,7 @@
         <v>54</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3">
         <v>81</v>
@@ -725,13 +745,14 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>40800</v>
@@ -758,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3">
         <v>91</v>
@@ -766,16 +787,17 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>682260</v>
@@ -802,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="3">
         <v>96</v>
@@ -810,16 +832,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>132000</v>
@@ -846,7 +869,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="3">
         <v>86</v>
@@ -854,25 +877,26 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>45005.564700925926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3">
         <v>8828</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -890,7 +914,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="3">
         <v>255</v>
@@ -898,13 +922,14 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>33941</v>
@@ -931,21 +956,22 @@
         <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>155220</v>
@@ -972,24 +998,25 @@
         <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>90815</v>
@@ -1004,7 +1031,7 @@
         <v>90815</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3">
         <v>198</v>
@@ -1016,7 +1043,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="3">
         <v>142</v>
@@ -1024,16 +1051,17 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>1400000</v>
@@ -1060,7 +1088,7 @@
         <v>23.9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L12" s="3">
         <v>76</v>
@@ -1068,16 +1096,17 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>140000</v>
@@ -1092,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3">
         <v>235</v>
@@ -1104,7 +1133,7 @@
         <v>28.2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L13" s="3">
         <v>100.84</v>
@@ -1112,16 +1141,17 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>45015.485319687505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>324438</v>
@@ -1148,7 +1178,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="3">
         <v>99.56</v>
@@ -1156,13 +1186,14 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>214000</v>
@@ -1171,7 +1202,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1189,30 +1220,33 @@
         <v>43</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>45015.675072337966</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>224226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1230,33 +1264,36 @@
         <v>42</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45015.679077731482</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3">
         <v>9823</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1274,21 +1311,27 @@
         <v>30</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="3">
         <v>173</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
         <v>165122</v>
@@ -1297,7 +1340,7 @@
         <v>528</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3">
         <v>205</v>
@@ -1315,21 +1358,24 @@
         <v>37.5</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="3">
         <v>125.36</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3">
         <v>41014</v>
@@ -1356,24 +1402,27 @@
         <v>40</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="3">
         <v>97</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3">
         <v>38069</v>
@@ -1400,24 +1449,27 @@
         <v>43.5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45016.51286357639</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3">
         <v>82148</v>
@@ -1444,24 +1496,25 @@
         <v>43</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="3">
         <v>81</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45016.690710104165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3">
         <v>20902</v>
@@ -1488,23 +1541,24 @@
         <v>37.200000000000003</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="1" t="s">
-        <v>52</v>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4242B68C-343B-4FB3-9DD6-E92FF340BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81F5750-07BD-42FB-A12D-3A6EB50540FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -232,6 +232,39 @@
   </si>
   <si>
     <t>Département</t>
+  </si>
+  <si>
+    <t>Haute-Savoie</t>
+  </si>
+  <si>
+    <t>Hautes-Pyrénées</t>
+  </si>
+  <si>
+    <t>Alpes-Maritimes</t>
+  </si>
+  <si>
+    <t>Puy-de-Dôme</t>
+  </si>
+  <si>
+    <t>Hérault</t>
+  </si>
+  <si>
+    <t>Haut-Rhin</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>Gironde</t>
+  </si>
+  <si>
+    <t>Peu</t>
+  </si>
+  <si>
+    <t>Moyen -</t>
+  </si>
+  <si>
+    <t>Moyen +</t>
   </si>
 </sst>
 </file>
@@ -549,7 +582,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1228,9 +1261,15 @@
       <c r="M15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="11">
+        <v>190</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
@@ -1272,9 +1311,15 @@
       <c r="M16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="N16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="11">
+        <v>51</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="Q16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1319,9 +1364,15 @@
       <c r="M17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="11">
+        <v>255</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="Q17" t="s">
         <v>63</v>
       </c>
@@ -1366,9 +1417,15 @@
       <c r="M18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="11">
+        <v>83</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
@@ -1410,9 +1467,15 @@
       <c r="M19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="11">
+        <v>195</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="Q19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1457,14 +1520,20 @@
       <c r="M20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="N20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="8">
+        <v>218</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="Q20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45016.51286357639</v>
       </c>
@@ -1501,15 +1570,23 @@
       <c r="L21" s="3">
         <v>81</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="M21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="11">
+        <v>195</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="Q21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45016.690710104165</v>
       </c>
@@ -1546,10 +1623,18 @@
       <c r="L22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="M22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" s="5">
+        <v>164</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Q22" s="1" t="s">
         <v>49</v>
       </c>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thach\OneDrive\Documents\M1 MIASHS\Marathon du web\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81F5750-07BD-42FB-A12D-3A6EB50540FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B542A14D-BD21-474E-9825-F78FAA19C011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27015" yWindow="2400" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -265,6 +252,54 @@
   </si>
   <si>
     <t>Moyen +</t>
+  </si>
+  <si>
+    <t>171 habitants au km2</t>
+  </si>
+  <si>
+    <t>péri-urbain et semi-rural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auvergne-Rhône-Alpes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 257 habitats au km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> péri-urbain et semi-rural. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bretagne </t>
+  </si>
+  <si>
+    <t>76 habitats au km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> péri-urbain,semi-rural et rural </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grand Est </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 262 habitatsau km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> péri-urbain </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pays de la Loire </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1303 habitats au km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urbain et péri-urbain </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129 habitats au km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urbain à rural </t>
   </si>
 </sst>
 </file>
@@ -359,7 +394,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,23 +614,23 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" customWidth="1"/>
-    <col min="6" max="23" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="51.54296875" customWidth="1"/>
+    <col min="6" max="23" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -648,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45001.677176620375</v>
       </c>
@@ -685,15 +720,20 @@
       <c r="L2" s="3">
         <v>102.79</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45001.729072118054</v>
       </c>
@@ -730,15 +770,20 @@
       <c r="L3" s="3">
         <v>103.8</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45002.416117141205</v>
       </c>
@@ -775,12 +820,17 @@
       <c r="L4" s="3">
         <v>81</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45002.449634259261</v>
       </c>
@@ -817,15 +867,20 @@
       <c r="L5" s="3">
         <v>91</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45002.627384050924</v>
       </c>
@@ -862,15 +917,20 @@
       <c r="L6" s="3">
         <v>96</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45002.650517083333</v>
       </c>
@@ -907,15 +967,20 @@
       <c r="L7" s="3">
         <v>86</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="Q7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45005.564700925926</v>
       </c>
@@ -957,7 +1022,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45005.621300856481</v>
       </c>
@@ -999,7 +1064,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45005.631334247686</v>
       </c>
@@ -1044,7 +1109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45007.493851562496</v>
       </c>
@@ -1089,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45008.446508553243</v>
       </c>
@@ -1134,7 +1199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45014.472854074076</v>
       </c>
@@ -1179,7 +1244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45015.485319687505</v>
       </c>
@@ -1221,7 +1286,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45015.494416099536</v>
       </c>
@@ -1271,7 +1336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45015.675072337966</v>
       </c>
@@ -1324,7 +1389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45015.679077731482</v>
       </c>
@@ -1377,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45015.703346759256</v>
       </c>
@@ -1427,7 +1492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45016.342198321756</v>
       </c>
@@ -1480,7 +1545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45016.42414427083</v>
       </c>
@@ -1533,7 +1598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45016.51286357639</v>
       </c>
@@ -1586,7 +1651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45016.690710104165</v>
       </c>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thach\OneDrive\Documents\M1 MIASHS\Marathon du web\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B542A14D-BD21-474E-9825-F78FAA19C011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E55EDE4-EA2A-4455-B249-0A066D0368B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="2400" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -257,9 +257,6 @@
     <t>171 habitants au km2</t>
   </si>
   <si>
-    <t>péri-urbain et semi-rural.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Auvergne-Rhône-Alpes </t>
   </si>
   <si>
@@ -300,6 +297,12 @@
   </si>
   <si>
     <t xml:space="preserve"> urbain à rural </t>
+  </si>
+  <si>
+    <t>peu dense</t>
+  </si>
+  <si>
+    <t>Coordonnées</t>
   </si>
 </sst>
 </file>
@@ -611,13 +614,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,10 +630,10 @@
     <col min="3" max="3" width="20.26953125" customWidth="1"/>
     <col min="4" max="4" width="29.453125" customWidth="1"/>
     <col min="5" max="5" width="51.54296875" customWidth="1"/>
-    <col min="6" max="23" width="18.81640625" customWidth="1"/>
+    <col min="6" max="24" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -680,10 +683,13 @@
         <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45001.677176620375</v>
       </c>
@@ -727,13 +733,14 @@
         <v>77</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45001.729072118054</v>
       </c>
@@ -771,19 +778,20 @@
         <v>103.8</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45002.416117141205</v>
       </c>
@@ -821,16 +829,17 @@
         <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45002.449634259261</v>
       </c>
@@ -868,19 +877,20 @@
         <v>91</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45002.627384050924</v>
       </c>
@@ -918,19 +928,20 @@
         <v>96</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45002.650517083333</v>
       </c>
@@ -968,19 +979,20 @@
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45005.564700925926</v>
       </c>
@@ -1021,8 +1033,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45005.621300856481</v>
       </c>
@@ -1063,8 +1076,9 @@
       <c r="N9" s="3"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45005.631334247686</v>
       </c>
@@ -1105,11 +1119,12 @@
       <c r="N10" s="3"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45007.493851562496</v>
       </c>
@@ -1150,11 +1165,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45008.446508553243</v>
       </c>
@@ -1195,11 +1211,12 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45014.472854074076</v>
       </c>
@@ -1240,11 +1257,12 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45015.485319687505</v>
       </c>
@@ -1285,8 +1303,9 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45015.494416099536</v>
       </c>
@@ -1335,8 +1354,9 @@
       <c r="P15" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45015.675072337966</v>
       </c>
@@ -1385,11 +1405,12 @@
       <c r="P16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45015.679077731482</v>
       </c>
@@ -1438,11 +1459,12 @@
       <c r="P17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45015.703346759256</v>
       </c>
@@ -1491,8 +1513,9 @@
       <c r="P18" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45016.342198321756</v>
       </c>
@@ -1541,11 +1564,12 @@
       <c r="P19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45016.42414427083</v>
       </c>
@@ -1594,11 +1618,12 @@
       <c r="P20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45016.51286357639</v>
       </c>
@@ -1647,11 +1672,12 @@
       <c r="P21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45016.690710104165</v>
       </c>
@@ -1700,15 +1726,16 @@
       <c r="P22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="R12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thach\OneDrive\Documents\M1 MIASHS\Marathon du web\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E55EDE4-EA2A-4455-B249-0A066D0368B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49452F8-C86C-4906-9B4E-E1B711DF2A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -263,46 +263,73 @@
     <t xml:space="preserve"> 257 habitats au km2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> péri-urbain et semi-rural. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bretagne </t>
   </si>
   <si>
     <t>76 habitats au km2</t>
   </si>
   <si>
-    <t xml:space="preserve"> péri-urbain,semi-rural et rural </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Grand Est </t>
   </si>
   <si>
     <t xml:space="preserve"> 262 habitatsau km2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> péri-urbain </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pays de la Loire </t>
   </si>
   <si>
     <t xml:space="preserve"> 1303 habitats au km2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> urbain et péri-urbain </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 129 habitats au km2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> urbain à rural </t>
-  </si>
-  <si>
     <t>peu dense</t>
   </si>
   <si>
     <t>Coordonnées</t>
+  </si>
+  <si>
+    <t>44° 46′ 13″ nord, 0° 18′ 38″ ouest</t>
+  </si>
+  <si>
+    <t>Isère</t>
+  </si>
+  <si>
+    <t>45° 21′ 51″ nord, 5° 35′ 26″ est</t>
+  </si>
+  <si>
+    <t>Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t>47° 52′ 41″ nord, 1° 47′ 14″ ouest</t>
+  </si>
+  <si>
+    <t>Meurthe-et-Moselle</t>
+  </si>
+  <si>
+    <t>densité intermédiaire</t>
+  </si>
+  <si>
+    <t>48° 46′ 08″ nord, 6° 07′ 42″ est</t>
+  </si>
+  <si>
+    <t>Loire-Atlantique</t>
+  </si>
+  <si>
+    <t>densement peuplé</t>
+  </si>
+  <si>
+    <t>47° 13′ 05″ nord, 1° 33′ 10″ ouest</t>
+  </si>
+  <si>
+    <t>Bas-Rhin, Haut-Rhin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densité intermédiaire </t>
+  </si>
+  <si>
+    <t>48° 19′ 29″ nord, 7° 25′ 41″ est</t>
   </si>
 </sst>
 </file>
@@ -312,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -340,8 +367,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +400,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -375,12 +415,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -395,9 +451,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,10 +678,10 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -683,13 +744,13 @@
         <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45001.677176620375</v>
       </c>
@@ -729,18 +790,23 @@
       <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="O2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45001.729072118054</v>
       </c>
@@ -780,13 +846,18 @@
       <c r="M3" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="O3" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,15 +900,20 @@
         <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -877,20 +953,25 @@
         <v>91</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45002.627384050924</v>
       </c>
@@ -928,20 +1009,25 @@
         <v>96</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45002.650517083333</v>
       </c>
@@ -979,15 +1065,20 @@
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="R7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1736,6 +1827,17 @@
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="R12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId4" location="/maplink/1" display="https://fr.wikipedia.org/wiki/La_Sauve - /maplink/1" xr:uid="{C6C9A15A-AB0F-4C06-A550-2465327E97F4}"/>
+    <hyperlink ref="N2" r:id="rId5" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{DE922D36-5B2C-4494-B018-C011115D7144}"/>
+    <hyperlink ref="N3" r:id="rId6" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{826151B7-3E68-4856-95CC-1424C9844A79}"/>
+    <hyperlink ref="Q3" r:id="rId7" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Voiron - /maplink/1" xr:uid="{3E5C98D5-A111-4B50-A99A-9F284FC2FE33}"/>
+    <hyperlink ref="N4" r:id="rId8" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
+    <hyperlink ref="Q4" r:id="rId9" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Saint-Malo-de-Phily - /maplink/1" xr:uid="{E619C5AA-C1E4-410D-A58B-B411EDB7BF0C}"/>
+    <hyperlink ref="N5" r:id="rId10" tooltip="Meurthe-et-Moselle" display="https://fr.wikipedia.org/wiki/Meurthe-et-Moselle" xr:uid="{0C39027E-470B-4ED8-971A-4EBB36E3FE62}"/>
+    <hyperlink ref="Q5" r:id="rId11" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Pompey - /maplink/1" xr:uid="{889F7680-8E2D-4B98-A5CA-90E41706493B}"/>
+    <hyperlink ref="N6" r:id="rId12" tooltip="Loire-Atlantique" display="https://fr.wikipedia.org/wiki/Loire-Atlantique" xr:uid="{6A12DA2C-1A5F-418F-89F8-EE42F1D22A80}"/>
+    <hyperlink ref="Q6" r:id="rId13" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Nantes - /maplink/1" xr:uid="{4274F30A-A0C1-4390-A899-1B91C917BA25}"/>
+    <hyperlink ref="Q7" r:id="rId14" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Dambach-la-Ville - /maplink/1" xr:uid="{D90FE50B-ECC4-4F17-B263-43DB5D634502}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Jeux de DD propre.xlsx
+++ b/Jeux de DD propre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thach\OneDrive\Documents\M1 MIASHS\Marathon du web\Maraton-du-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\S2\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49452F8-C86C-4906-9B4E-E1B711DF2A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6199628C-69A7-49FD-8BDC-9EBDE40EDE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Grand Chambéry</t>
   </si>
   <si>
-    <t>4500 pour les PAV biodec mode collecte et près de 30 000 à un point de compostage partagé</t>
-  </si>
-  <si>
     <t>Oui, je les envoie dans un mail</t>
   </si>
   <si>
@@ -245,15 +242,6 @@
     <t>Gironde</t>
   </si>
   <si>
-    <t>Peu</t>
-  </si>
-  <si>
-    <t>Moyen -</t>
-  </si>
-  <si>
-    <t>Moyen +</t>
-  </si>
-  <si>
     <t>171 habitants au km2</t>
   </si>
   <si>
@@ -330,6 +318,36 @@
   </si>
   <si>
     <t>48° 19′ 29″ nord, 7° 25′ 41″ est</t>
+  </si>
+  <si>
+    <t>45° 54′ 58″ nord, 6° 07′ 59″ est</t>
+  </si>
+  <si>
+    <t>peu denses</t>
+  </si>
+  <si>
+    <t>43° 06′ 08″ nord, 0° 19′ 03″ est</t>
+  </si>
+  <si>
+    <t>très peu denses</t>
+  </si>
+  <si>
+    <t>44° 07′ 45″ nord, 6° 49′ 58″ est</t>
+  </si>
+  <si>
+    <t>45° 53′ 40″ nord, 3° 06′ 48″ est</t>
+  </si>
+  <si>
+    <t>43° 39′ 11″ nord, 3° 33′ 07″ est</t>
+  </si>
+  <si>
+    <t>47° 54′ 30″ nord, 7° 12′ 39″ est</t>
+  </si>
+  <si>
+    <t>43° 34′ 00″ nord, 3° 27′ 00″ est</t>
+  </si>
+  <si>
+    <t>44° 59′ 32″ nord, 0° 20′ 24″ ouest</t>
   </si>
 </sst>
 </file>
@@ -339,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -367,26 +385,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -400,14 +405,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -415,50 +414,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,25 +662,25 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" customWidth="1"/>
-    <col min="6" max="24" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" customWidth="1"/>
+    <col min="6" max="24" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -732,26 +716,26 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>45001.677176620375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -781,33 +765,33 @@
       <c r="J2" s="3">
         <v>37</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>59</v>
+      <c r="K2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="L2" s="3">
         <v>102.79</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -844,26 +828,26 @@
         <v>103.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -900,23 +884,23 @@
         <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -953,26 +937,26 @@
         <v>91</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1009,26 +993,26 @@
         <v>96</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1058,46 +1042,46 @@
       <c r="J7" s="3">
         <v>47</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="3">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>45005.564700925926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>8828</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1105,10 +1089,10 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
         <v>344</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>54</v>
       </c>
       <c r="J8" s="3">
@@ -1126,8 +1110,8 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1148,10 +1132,10 @@
       <c r="G9" s="3">
         <v>33941</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <v>115</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <v>35</v>
       </c>
       <c r="J9" s="3">
@@ -1160,17 +1144,17 @@
       <c r="K9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>53</v>
+      <c r="L9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1191,10 +1175,10 @@
       <c r="G10" s="3">
         <v>20924</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <v>184</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>59</v>
       </c>
       <c r="J10" s="3">
@@ -1203,20 +1187,20 @@
       <c r="K10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>53</v>
+      <c r="L10" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1235,12 +1219,12 @@
         <v>90815</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="3">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
         <v>198</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>43</v>
       </c>
       <c r="J11" s="3">
@@ -1261,8 +1245,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1283,13 +1267,13 @@
       <c r="G12" s="3">
         <v>260000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>224</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <v>44.6</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>23.9</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1307,8 +1291,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1326,16 +1310,16 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="13">
+        <v>34500</v>
+      </c>
+      <c r="H13" s="7">
         <v>235</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <v>43.5</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>28.2</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1350,15 +1334,15 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45015.485319687505</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>45015.485319687505</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>324438</v>
@@ -1375,10 +1359,10 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>228</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>46</v>
       </c>
       <c r="J14" s="3">
@@ -1396,12 +1380,12 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>214000</v>
@@ -1410,7 +1394,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1418,10 +1402,10 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>229</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>35</v>
       </c>
       <c r="J15" s="3">
@@ -1431,37 +1415,39 @@
         <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="11">
-        <v>190</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+        <v>52</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="10">
+        <v>403</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>45015.675072337966</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>224226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1469,53 +1455,55 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>221.32</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>59.4</v>
       </c>
       <c r="J16" s="3">
         <v>42</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="11">
-        <v>51</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="10">
+        <v>65</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="R16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>45015.679077731482</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>45015.679077731482</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="3">
         <v>9823</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1523,10 +1511,10 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>295</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>51</v>
       </c>
       <c r="J17" s="3">
@@ -1538,29 +1526,31 @@
       <c r="L17" s="3">
         <v>173</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="10">
+        <v>11</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="11">
-        <v>255</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    </row>
+    <row r="18" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>165122</v>
@@ -1568,8 +1558,8 @@
       <c r="D18" s="3">
         <v>528</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>53</v>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="3">
         <v>205</v>
@@ -1592,26 +1582,28 @@
       <c r="L18" s="3">
         <v>125.36</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" s="11">
-        <v>83</v>
+      <c r="M18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="10">
+        <v>380</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3">
         <v>41014</v>
@@ -1643,29 +1635,31 @@
       <c r="L19" s="3">
         <v>97</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" s="11">
-        <v>195</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="10">
+        <v>84</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="R19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>38069</v>
@@ -1692,34 +1686,36 @@
         <v>43.5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="L20" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="M20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="8">
-        <v>218</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="O20" s="7">
+        <v>201</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="R20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>45016.51286357639</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>45016.51286357639</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C21" s="3">
         <v>82148</v>
@@ -1751,29 +1747,31 @@
       <c r="L21" s="3">
         <v>81</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="11">
-        <v>195</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="11"/>
+      <c r="M21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="10">
+        <v>104</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="R21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>45016.690710104165</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>45016.690710104165</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C22" s="3">
         <v>20902</v>
@@ -1787,7 +1785,7 @@
       <c r="F22" s="3">
         <v>56070</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="3">
@@ -1802,24 +1800,26 @@
       <c r="K22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>53</v>
+      <c r="L22" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="M22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22" s="5">
-        <v>164</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="11"/>
+      <c r="O22" s="4">
+        <v>186</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1827,17 +1827,11 @@
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="R12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q2" r:id="rId4" location="/maplink/1" display="https://fr.wikipedia.org/wiki/La_Sauve - /maplink/1" xr:uid="{C6C9A15A-AB0F-4C06-A550-2465327E97F4}"/>
-    <hyperlink ref="N2" r:id="rId5" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{DE922D36-5B2C-4494-B018-C011115D7144}"/>
-    <hyperlink ref="N3" r:id="rId6" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{826151B7-3E68-4856-95CC-1424C9844A79}"/>
-    <hyperlink ref="Q3" r:id="rId7" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Voiron - /maplink/1" xr:uid="{3E5C98D5-A111-4B50-A99A-9F284FC2FE33}"/>
-    <hyperlink ref="N4" r:id="rId8" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
-    <hyperlink ref="Q4" r:id="rId9" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Saint-Malo-de-Phily - /maplink/1" xr:uid="{E619C5AA-C1E4-410D-A58B-B411EDB7BF0C}"/>
-    <hyperlink ref="N5" r:id="rId10" tooltip="Meurthe-et-Moselle" display="https://fr.wikipedia.org/wiki/Meurthe-et-Moselle" xr:uid="{0C39027E-470B-4ED8-971A-4EBB36E3FE62}"/>
-    <hyperlink ref="Q5" r:id="rId11" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Pompey - /maplink/1" xr:uid="{889F7680-8E2D-4B98-A5CA-90E41706493B}"/>
-    <hyperlink ref="N6" r:id="rId12" tooltip="Loire-Atlantique" display="https://fr.wikipedia.org/wiki/Loire-Atlantique" xr:uid="{6A12DA2C-1A5F-418F-89F8-EE42F1D22A80}"/>
-    <hyperlink ref="Q6" r:id="rId13" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Nantes - /maplink/1" xr:uid="{4274F30A-A0C1-4390-A899-1B91C917BA25}"/>
-    <hyperlink ref="Q7" r:id="rId14" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Dambach-la-Ville - /maplink/1" xr:uid="{D90FE50B-ECC4-4F17-B263-43DB5D634502}"/>
+    <hyperlink ref="N2" r:id="rId4" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{DE922D36-5B2C-4494-B018-C011115D7144}"/>
+    <hyperlink ref="N3" r:id="rId5" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{826151B7-3E68-4856-95CC-1424C9844A79}"/>
+    <hyperlink ref="N4" r:id="rId6" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
+    <hyperlink ref="N5" r:id="rId7" tooltip="Meurthe-et-Moselle" display="https://fr.wikipedia.org/wiki/Meurthe-et-Moselle" xr:uid="{0C39027E-470B-4ED8-971A-4EBB36E3FE62}"/>
+    <hyperlink ref="N6" r:id="rId8" tooltip="Loire-Atlantique" display="https://fr.wikipedia.org/wiki/Loire-Atlantique" xr:uid="{6A12DA2C-1A5F-418F-89F8-EE42F1D22A80}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
